--- a/regions/12/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
+++ b/regions/12/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
@@ -4,37 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="შიდა ქართლი" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>წყარო:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  2016 წლის ჩათვლით შინამეურნეობების ინტეგრირებული გამოკვლევა, 2017 წლიდან -  სამუშაო ძალის გამოკვლევა. </t>
-    </r>
-  </si>
   <si>
     <t>მოსახლეობა სამუშაო ძალის გარეთ</t>
   </si>
@@ -117,6 +97,26 @@
       <t xml:space="preserve"> პროცენტი</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>წყარო:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2016 წლის ჩათვლით შინამეურნეობების ინტეგრირებული გამოკვლევა, 2017 წლიდან  -  სამუშაო ძალის გამოკვლევა. </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +248,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,15 +293,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -384,19 +392,65 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="6"/>
     <cellStyle name="Normal_Sheet2" xfId="4"/>
     <cellStyle name="Normal_Sheet3" xfId="3"/>
     <cellStyle name="Normal_Sheet5" xfId="5"/>
@@ -702,21 +756,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -757,56 +814,56 @@
       <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:23" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3"/>
+      <c r="A3" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
       <c r="V3"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4"/>
+      <c r="A4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
       <c r="V4"/>
       <c r="W4"/>
     </row>
@@ -827,8 +884,10 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="6"/>
-      <c r="T5" s="6" t="s">
-        <v>9</v>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:23" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -890,10 +949,16 @@
       <c r="T6" s="14">
         <v>2021</v>
       </c>
+      <c r="U6" s="14">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="14">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="16">
         <v>221.17929971376225</v>
@@ -952,10 +1017,16 @@
       <c r="T7" s="16">
         <v>221.22162305930644</v>
       </c>
+      <c r="U7" s="37">
+        <v>216.94901759394142</v>
+      </c>
+      <c r="V7" s="51">
+        <v>216.19169347498567</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="19">
         <v>146.15955111719774</v>
@@ -1014,10 +1085,16 @@
       <c r="T8" s="19">
         <v>108.19150190549925</v>
       </c>
+      <c r="U8" s="38">
+        <v>109.80844961618591</v>
+      </c>
+      <c r="V8" s="52">
+        <v>114.48940724467141</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="19">
         <v>130.2379551168342</v>
@@ -1076,10 +1153,16 @@
       <c r="T9" s="19">
         <v>84.016821603732836</v>
       </c>
+      <c r="U9" s="38">
+        <v>91.093961399735008</v>
+      </c>
+      <c r="V9" s="52">
+        <v>95.566154899435617</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="19">
         <v>42.317602395905034</v>
@@ -1103,34 +1186,34 @@
         <v>32.476264267519632</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10" s="19">
         <v>53.092235128686269</v>
@@ -1138,10 +1221,16 @@
       <c r="T10" s="19">
         <v>51.550301874435021</v>
       </c>
+      <c r="U10" s="38">
+        <v>54.896367657143777</v>
+      </c>
+      <c r="V10" s="52">
+        <v>57.072684046919775</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1">
       <c r="A11" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="19">
         <v>87.920352720928918</v>
@@ -1165,34 +1254,34 @@
         <v>77.383020851130667</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11" s="19">
         <v>31.338757399778071</v>
@@ -1200,10 +1289,16 @@
       <c r="T11" s="19">
         <v>32.378526351784906</v>
       </c>
+      <c r="U11" s="38">
+        <v>36.197593742591387</v>
+      </c>
+      <c r="V11" s="52">
+        <v>38.405294218184551</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="19">
         <v>0</v>
@@ -1227,34 +1322,34 @@
         <v>0</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S12" s="19">
         <v>0.24166692703813042</v>
@@ -1262,10 +1357,16 @@
       <c r="T12" s="19">
         <v>8.799337751293225E-2</v>
       </c>
+      <c r="U12" s="38">
+        <v>0</v>
+      </c>
+      <c r="V12" s="52">
+        <v>8.8176634331081263E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="19">
         <v>15.921596000364397</v>
@@ -1324,10 +1425,16 @@
       <c r="T13" s="19">
         <v>24.174680301766379</v>
       </c>
+      <c r="U13" s="38">
+        <v>18.714488216451056</v>
+      </c>
+      <c r="V13" s="52">
+        <v>18.923252345235703</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="19">
         <v>75.019748596565094</v>
@@ -1386,10 +1493,16 @@
       <c r="T14" s="19">
         <v>113.03012115380719</v>
       </c>
+      <c r="U14" s="38">
+        <v>107.14056797775433</v>
+      </c>
+      <c r="V14" s="52">
+        <v>101.70228623031491</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="26">
         <v>10.893298370626288</v>
@@ -1448,10 +1561,16 @@
       <c r="T15" s="26">
         <v>22.344343017700183</v>
       </c>
+      <c r="U15" s="39">
+        <v>17.042848962774642</v>
+      </c>
+      <c r="V15" s="53">
+        <v>16.528387036536461</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1">
       <c r="A16" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="26">
         <v>66.081930499983116</v>
@@ -1510,10 +1629,16 @@
       <c r="T16" s="26">
         <v>48.906386459561695</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" thickBot="1">
+      <c r="U16" s="39">
+        <v>50.614863728819415</v>
+      </c>
+      <c r="V16" s="53">
+        <v>52.957357151151761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="31">
         <v>58.883428641550452</v>
@@ -1572,8 +1697,14 @@
       <c r="T17" s="31">
         <v>37.978575711475145</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1">
+      <c r="U17" s="40">
+        <v>41.988648950802585</v>
+      </c>
+      <c r="V17" s="54">
+        <v>44.204360196888437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="L18"/>
@@ -1589,71 +1720,93 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="32.25" customHeight="1">
-      <c r="A19" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1">
-      <c r="A20" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1"/>
-    <row r="22" spans="1:23" ht="15" customHeight="1">
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1">
+    <row r="19" spans="1:26" s="45" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="43"/>
+      <c r="Z19" s="46"/>
+    </row>
+    <row r="20" spans="1:26" s="50" customFormat="1" ht="45" customHeight="1">
+      <c r="A20" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="48"/>
+      <c r="Z20"/>
+    </row>
+    <row r="21" spans="1:26" ht="15" customHeight="1">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" ht="15" customHeight="1">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1670,9 +1823,8 @@
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:23">
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1690,7 +1842,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:26">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1708,7 +1860,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:26">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1726,7 +1878,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:26">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1744,7 +1896,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:26">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1762,7 +1914,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:26">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1780,7 +1932,7 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:26">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1798,31 +1950,7 @@
       <c r="O30"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="1:23">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
